--- a/files/xlsx/Пассажиропотоки по городам 2021.xlsx
+++ b/files/xlsx/Пассажиропотоки по городам 2021.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kotlyarov_m\Documents\MK\Dates\2024\202405\20240504\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kotlyarov_m\Documents\MK\Dates\2024\202405\20240504\MAL\files\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A14B27CA-95E1-439A-8604-76984088B2ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10372C10-43E0-4E3B-B18B-6E5E8F3BBA64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="21" sheetId="5" r:id="rId1"/>
+    <sheet name="Пассажиропоток" sheetId="5" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
@@ -820,10 +820,10 @@
     <t>Аэропорт</t>
   </si>
   <si>
-    <t>Пассажиры 2021</t>
-  </si>
-  <si>
-    <t>Груз 2021</t>
+    <t>Пассажиропоток</t>
+  </si>
+  <si>
+    <t>Грузопоток</t>
   </si>
 </sst>
 </file>
@@ -1262,8 +1262,8 @@
   <autoFilter ref="A1:C265" xr:uid="{DF3FDA66-B028-4694-90B5-5D575F175141}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{16D50308-1D3E-4539-A2C8-84736242E89D}" name="Аэропорт" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{7ACA5A9E-4FB9-46CC-8FFE-82FFE370C148}" name="Пассажиры 2021" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{C98B5735-C0C4-495C-96CB-CDFA29C76841}" name="Груз 2021" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{7ACA5A9E-4FB9-46CC-8FFE-82FFE370C148}" name="Пассажиропоток" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{C98B5735-C0C4-495C-96CB-CDFA29C76841}" name="Грузопоток" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1559,7 +1559,7 @@
   <dimension ref="A1:C266"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
